--- a/biology/Botanique/Homalomena/Homalomena.xlsx
+++ b/biology/Botanique/Homalomena/Homalomena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homalomena est un genre de la famille des Araceae.
-Les « Homalomena » se trouvent dans le sud de l'Asie et dans le sud-ouest du Pacifique[1],[2],[3]. De nombreuses « Homalomena » ont une forte odeur d'anis. Le nom dérive apparemment d'un nom vernaculaire malais mal traduit par « homalos » qui signifie « plat », et « mene » qui signifie « lune ».
+Les « Homalomena » se trouvent dans le sud de l'Asie et dans le sud-ouest du Pacifique. De nombreuses « Homalomena » ont une forte odeur d'anis. Le nom dérive apparemment d'un nom vernaculaire malais mal traduit par « homalos » qui signifie « plat », et « mene » qui signifie « lune ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes de ce genre sont des plantes vivaces à feuilles persistantes formant des touffes avec des feuilles principalement en forme de cœur ou en forme de flèche. Les fleurs sont minuscules et sans pétales, enfermées dans une spathe généralement verdâtre cachée par les feuilles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes de ce genre sont des plantes vivaces à feuilles persistantes formant des touffes avec des feuilles principalement en forme de cœur ou en forme de flèche. Les fleurs sont minuscules et sans pétales, enfermées dans une spathe généralement verdâtre cachée par les feuilles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 février 2024)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 février 2024) :
 Homalomena acuminata (Ridl.) S.Y.Wong &amp; P.C.Boyce
 Homalomena adiensis A.Hay
 Homalomena aeneifolia Alderw.
@@ -750,11 +766,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Homalomena Schott[5].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Homalomene[6].
-Homalomena a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Homalomena Schott.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Homalomene.
+Homalomena a pour synonymes :
 Chamaecladon Miq.
 Curmeria Linden &amp; André
 Cyrtocladon Griff.
